--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="11595" xr2:uid="{B88B512C-2D66-4114-9371-3420DA38107B}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="2595" windowHeight="90" xr2:uid="{B88B512C-2D66-4114-9371-3420DA38107B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="147">
   <si>
     <t>PART</t>
   </si>
@@ -50,24 +51,9 @@
     <t>LSM6DSM</t>
   </si>
   <si>
-    <t>Dual Pin JST Female</t>
-  </si>
-  <si>
-    <t>CAP 10uF 25v</t>
-  </si>
-  <si>
     <t>CAP 1.5nF &gt;20v</t>
   </si>
   <si>
-    <t>RES 15K [lowest tolerance]</t>
-  </si>
-  <si>
-    <t>RES 60.4K [lowest tolerance]</t>
-  </si>
-  <si>
-    <t>RES 200k 1%</t>
-  </si>
-  <si>
     <t>RES 340K 1%</t>
   </si>
   <si>
@@ -77,32 +63,427 @@
     <t>LTC3440</t>
   </si>
   <si>
-    <t>Jumper</t>
-  </si>
-  <si>
-    <t>Button</t>
-  </si>
-  <si>
-    <t>IND 100uH</t>
-  </si>
-  <si>
     <t>SUPPLIER</t>
   </si>
   <si>
-    <t>SUPL.P.NO</t>
-  </si>
-  <si>
-    <t>MAN.P.NO</t>
+    <t>CAP 4.7u</t>
+  </si>
+  <si>
+    <t>DIODE</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>MANUFACTURER</t>
+  </si>
+  <si>
+    <t>Espressif</t>
+  </si>
+  <si>
+    <t>Hirose</t>
+  </si>
+  <si>
+    <t>SUPPLIER PART NUMBER</t>
+  </si>
+  <si>
+    <t>MANUFACTURER PART NO</t>
+  </si>
+  <si>
+    <t>BUY URL</t>
+  </si>
+  <si>
+    <t>PACKAGING</t>
+  </si>
+  <si>
+    <t>FOOTPRINT</t>
+  </si>
+  <si>
+    <t>REEL</t>
+  </si>
+  <si>
+    <t>SMD.1206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80-C1206C104K5R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1206C104K5R </t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/productdetail/kemet/c1206c104k5ractu?qs=sGAEpiMZZMsh%252b1woXyUXj%2FDbDQ5W%2FsjPgTe%2FeHi7cCg%3D</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ESP32-WROVER/ESP32-WROVER-I</t>
+  </si>
+  <si>
+    <t>ESP32-WROVER</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>muRata</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/productdetail/murata-electronics/gcm1885c1h152fa16d?qs=sGAEpiMZZMs0AnBnWHyRQAsAWwhBCY7bGXZNmxQSzsHJNitDm4jeRw%3D%3D</t>
+  </si>
+  <si>
+    <t>SMD.0603</t>
+  </si>
+  <si>
+    <t>81-GCM1885C1H152FA6D</t>
+  </si>
+  <si>
+    <t>GCM1885C1H152FA16D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81-GRM219R61E75MA3D </t>
+  </si>
+  <si>
+    <t>GRM219R61E475MA73D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/productdetail/murata-electronics/grm219r61e475ma73d?qs=sGAEpiMZZMsh%252b1woXyUXj5QCz55T1myu93o8wXqLGhk%3D</t>
+  </si>
+  <si>
+    <t>SMD.0805</t>
+  </si>
+  <si>
+    <t>Wurth Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">710-865080442004 </t>
+  </si>
+  <si>
+    <t>865080442004</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/productdetail/wurth-electronics/865080442004?qs=sGAEpiMZZMsh%252b1woXyUXj4jKQI6sNRw6szAjfBEpelo%3D</t>
+  </si>
+  <si>
+    <t>SMD/SMT 5x5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">710-865080445010 </t>
+  </si>
+  <si>
+    <t>865080445010</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/productdetail/wurth-electronics/865080445010?qs=sGAEpiMZZMsh%252b1woXyUXj4jKQI6sNRw6Vixc830kP70%3D</t>
+  </si>
+  <si>
+    <t>SMD/SMT 6.3x7.7</t>
+  </si>
+  <si>
+    <t>SCHOTTKY DIODE</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/productdetail/hirose-connector/dm3bt-dsf-pejs?qs=sGAEpiMZZMuJakaoiLiBpnXBVL%252bdeeUjH5AeMofR7aY%3D</t>
+  </si>
+  <si>
+    <t>DM3BT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">798-DM3BT-DSF-PEJS </t>
+  </si>
+  <si>
+    <t>DM3BT-DSF-PEJS</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>SMD/CUSTOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">667-DB2G42900L1 </t>
+  </si>
+  <si>
+    <t>DB2G42900L1</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/productdetail/panasonic/db2g42900l1?qs=sGAEpiMZZMtQ8nqTKtFS%2FBqklOVTDqFLRANSqqXcR7inWaN9CG6ilw%3D%3D</t>
+  </si>
+  <si>
+    <t>Rectron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">583-2SS100L-W </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SS100L-W </t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/productdetail/rectron/2ss100l-w?qs=sGAEpiMZZMtQ8nqTKtFS%2FBUuz6Zx2fl0VUK9q45b5rFMw1Rr2GDGWA%3D%3D</t>
+  </si>
+  <si>
+    <t>Kingbright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">604-APT1608EC </t>
+  </si>
+  <si>
+    <t>APT1608EC</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/productdetail/kingbright/apt1608ec?qs=sGAEpiMZZMuCm2JlHBGefkIVz3MM6kBjq3aSKuWcstU%3D</t>
+  </si>
+  <si>
+    <t>MicroUSB Connector</t>
+  </si>
+  <si>
+    <t>614105150721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">710-614105150721 </t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Wurth-Electronics/614105150721?qs=sGAEpiMZZMulM8LPOQ%252byk2Wnkghg7F8rbIFZr6yMbCIOo22V%252bMTDrw%3d%3d</t>
+  </si>
+  <si>
+    <t>THRU-HOLE</t>
+  </si>
+  <si>
+    <t>IND 10uH</t>
+  </si>
+  <si>
+    <t>Fastron</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Fastron/SMCC-N-100K-02?qs=sGAEpiMZZMv126LJFLh8y6fCWMHuAQtXUOlAjH1e5so%3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">434-SMCCN-100K-02 </t>
+  </si>
+  <si>
+    <t>SMCC/N-100K-02</t>
+  </si>
+  <si>
+    <t>AMMOPACK</t>
+  </si>
+  <si>
+    <t>JST Battery Connector</t>
+  </si>
+  <si>
+    <t>RES 15K [low tolerance]</t>
+  </si>
+  <si>
+    <t>RES 60.4K [low tolerance]</t>
+  </si>
+  <si>
+    <t>RES 200K 1%</t>
+  </si>
+  <si>
+    <t>BUTTON</t>
+  </si>
+  <si>
+    <t>POWER SWITCH</t>
+  </si>
+  <si>
+    <t>MIC5365</t>
+  </si>
+  <si>
+    <t>MCP73831</t>
+  </si>
+  <si>
+    <t>FT323R</t>
+  </si>
+  <si>
+    <t>PMOS_LOGICLEVEL</t>
+  </si>
+  <si>
+    <t>Infineon</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Infineon-Technologies/IRLML6402TRPBF?qs=sGAEpiMZZMshyDBzk1%2fWi5%252bqVgN3%252bWS8q5c86LWeEgA%3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">942-IRLML6402TRPBF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRLML6402TRPBF </t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/ROHM-Semiconductor/ESR10EZPJ103?qs=sGAEpiMZZMtlubZbdhIBIGrVcSH3vih4ojwdJd11uv8%3d</t>
+  </si>
+  <si>
+    <t>ROHM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">755-ESR10EZPJ103 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESR10EZPJ103 </t>
+  </si>
+  <si>
+    <t>SMD/SOT23</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Bourns/CR0805-FX-1502ELF?qs=sGAEpiMZZMtlubZbdhIBIKGXf6O5%2fb09wlSGXvTGIXs%3d</t>
+  </si>
+  <si>
+    <t>SMD/0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">652-CR0805FX-1502ELF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR0805FX-1502ELF </t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Panasonic-Industrial-Devices/ERJ-8ENF6042V?qs=sGAEpiMZZMtlubZbdhIBINASdSOp%252b8kn%252b1rjnSZBAxU%3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">667-ERJ-8ENF6042V </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERJ-8ENF6042V </t>
+  </si>
+  <si>
+    <t xml:space="preserve">652-CR0805FX-2003ELF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR0805FX-2003ELF </t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Bourns/CR0805-FX-2003ELF?qs=sGAEpiMZZMtlubZbdhIBIKn39ibjI6WbPjc71lQAbQc%3d</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Vishay/CRCW0805340KFKEA?qs=sGAEpiMZZMtlubZbdhIBIA7%252bweZOoaX2y3mL%252b9veFiI%3d</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71-CRCW0805340KFKEA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRCW0805340KFKEA </t>
+  </si>
+  <si>
+    <t>RES 100K</t>
+  </si>
+  <si>
+    <t>RES 1K</t>
+  </si>
+  <si>
+    <t>RES 270</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Yageo/RC0805FR-07100KL?qs=sGAEpiMZZMtlubZbdhIBIBEZimkhVqQ4%252bJiJ58dc82A%3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603-RC0805FR-07100KL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-07100KL </t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">755-ESR10EZPJ271 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESR10EZPJ271 </t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/ROHM-Semiconductor/ESR10EZPJ271?qs=sGAEpiMZZMtlubZbdhIBIGrVcSH3vih42yUEot6rORU%3d</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Vishay/CRCW08051K00FKEAC?qs=sGAEpiMZZMtlubZbdhIBIK1n8%252bu9gPumA6s2h80VPXs%3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71-CRCW08051K00FKEAC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRCW08051K00FKEAC </t>
+  </si>
+  <si>
+    <t>Linear | Analog Devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">584-LTC3440EMS#PBF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTC3440EMS#PBF </t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Analog-Devices-Linear-Technology/LTC3440EMSPBF?qs=sGAEpiMZZMvi6wO7nhr1L6ucXBj9KDX%252bvYkyf6uQMJk%3d</t>
+  </si>
+  <si>
+    <t>SMD/MSOP</t>
+  </si>
+  <si>
+    <t>RES 470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">652-CR0805FX-4700ELF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR0805FX-4700ELF </t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Bourns/CR0805-FX-4700ELF?qs=sGAEpiMZZMtlubZbdhIBIDEmHCAUH0R0Vf1IHPeLRm0%3d</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/STMicroelectronics/LSM6DSMTR?qs=sGAEpiMZZMvzNxwKcL67%252brtNmXRO8QI5hVwSJRZp7YM%3d</t>
+  </si>
+  <si>
+    <t>SMD/LGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">511-LSM6DSMTR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSM6DSMTR </t>
+  </si>
+  <si>
+    <t>ST Microelectronics</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/TE-Connectivity-Alcoswitch/2-1825910-7?qs=sGAEpiMZZMsgGjVA3toVBAB9MhfkJQ92q%2fWXu5sY%2fg0%3d</t>
+  </si>
+  <si>
+    <t>THRU-HOLE/6.00MM</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">506-2-1825910-7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-1825910-7 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,13 +506,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,177 +831,1207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9016143-A636-4818-B2E3-ADA83ECAA480}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="4" max="5" width="12" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1" xr:uid="{F2A4FEE1-25F0-4D74-B0E9-6D5A1CCEC8FC}"/>
+    <hyperlink ref="G9" r:id="rId2" xr:uid="{4F7D89DD-3BAD-463C-ABEA-F807402F8DFB}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{AD54A08A-27A1-4A10-BD48-2BEF5A0158FE}"/>
+    <hyperlink ref="G10" r:id="rId4" xr:uid="{83F71009-BDA8-498A-8A68-D3253A908B3A}"/>
+    <hyperlink ref="G11" r:id="rId5" xr:uid="{9FFD019F-4855-4F83-8129-6B6B60C70AA3}"/>
+    <hyperlink ref="G4" r:id="rId6" xr:uid="{765DFA88-0A85-476C-9A9A-CC8D94EB1B79}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{48452489-3F4A-438D-82A1-A8EA6035F251}"/>
+    <hyperlink ref="G7" r:id="rId8" xr:uid="{5301B297-8E43-43DD-875E-9148B696B86A}"/>
+    <hyperlink ref="G3" r:id="rId9" xr:uid="{4298AA70-1967-44B6-9DEB-E2D66690AA58}"/>
+    <hyperlink ref="G12" r:id="rId10" xr:uid="{1F3C3DD3-949D-434D-AB5A-283CCD2CAA19}"/>
+    <hyperlink ref="G13" r:id="rId11" xr:uid="{2A0576AA-BCD7-4115-ABA3-0A709CE0AC48}"/>
+    <hyperlink ref="G32" r:id="rId12" xr:uid="{270EC663-B559-45CB-A939-D45891A7A944}"/>
+    <hyperlink ref="G15" r:id="rId13" xr:uid="{9749DBF8-635B-4B0F-BB1B-A07220C8465D}"/>
+    <hyperlink ref="G16" r:id="rId14" xr:uid="{99302780-FCCB-4B39-9E86-9A833D97CB90}"/>
+    <hyperlink ref="G18" r:id="rId15" xr:uid="{C0E9E816-2C28-4166-9164-1B445BB7796B}"/>
+    <hyperlink ref="G20" r:id="rId16" xr:uid="{ABB2AFCE-8DE7-42AF-83B7-4AF867DF599F}"/>
+    <hyperlink ref="G21" r:id="rId17" xr:uid="{F383A833-0668-49A8-A37C-4EC5F7C8CF8D}"/>
+    <hyperlink ref="G22" r:id="rId18" xr:uid="{A3AA68A5-32B8-4257-848A-9C0741F852C6}"/>
+    <hyperlink ref="G24" r:id="rId19" xr:uid="{41F596A3-FBA9-4A8A-AA36-40F96C3CF5F6}"/>
+    <hyperlink ref="G23" r:id="rId20" xr:uid="{7C5CF6D4-D73E-4138-8B87-005919B9E29D}"/>
+    <hyperlink ref="G25" r:id="rId21" xr:uid="{AD59595A-76CB-4887-82B9-6B270C0E967B}"/>
+    <hyperlink ref="G26" r:id="rId22" xr:uid="{9A38BD2A-1212-4D4C-903B-01472CA7937F}"/>
+    <hyperlink ref="G27" r:id="rId23" xr:uid="{F3142F69-DA1E-4BEA-A444-87EB59EBD76B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F5 F8" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>